--- a/example/data/files_info.xlsx
+++ b/example/data/files_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>sample_yield_on_feedstock_basis_fr</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>sample</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>derivatized</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>calibration_file</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -498,6 +513,17 @@
       <c r="G2" t="n">
         <v>1</v>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -527,6 +553,17 @@
       <c r="G3" t="n">
         <v>1</v>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,6 +593,17 @@
       <c r="G4" t="n">
         <v>1</v>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -585,6 +633,17 @@
       <c r="G5" t="n">
         <v>1</v>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -614,6 +673,17 @@
       <c r="G6" t="n">
         <v>1</v>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -643,6 +713,17 @@
       <c r="G7" t="n">
         <v>1</v>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -672,6 +753,17 @@
       <c r="G8" t="n">
         <v>1</v>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -701,6 +793,17 @@
       <c r="G9" t="n">
         <v>1</v>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -729,6 +832,17 @@
       </c>
       <c r="G10" t="n">
         <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/example/data/files_info.xlsx
+++ b/example/data/files_info.xlsx
@@ -513,10 +513,8 @@
       <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
+      <c r="H2" t="n">
+        <v>210</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -553,10 +551,8 @@
       <c r="G3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
+      <c r="H3" t="n">
+        <v>210</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -593,10 +589,8 @@
       <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
+      <c r="H4" t="n">
+        <v>210</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -633,10 +627,8 @@
       <c r="G5" t="n">
         <v>1</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
+      <c r="H5" t="n">
+        <v>210</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -673,10 +665,8 @@
       <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
+      <c r="H6" t="n">
+        <v>254</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -713,10 +703,8 @@
       <c r="G7" t="n">
         <v>1</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
+      <c r="H7" t="n">
+        <v>254</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -753,10 +741,8 @@
       <c r="G8" t="n">
         <v>1</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
+      <c r="H8" t="n">
+        <v>254</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -793,10 +779,8 @@
       <c r="G9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
+      <c r="H9" t="n">
+        <v>254</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -833,10 +817,8 @@
       <c r="G10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>254</t>
-        </is>
+      <c r="H10" t="n">
+        <v>254</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
